--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s3_P1_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s3_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1190.265854406234</v>
+        <v>2081.958923981153</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.42003702099418</v>
+        <v>23.65265368177027</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.485887517613973</v>
+        <v>8.265616796420925</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.041704902850064</v>
+        <v>6.571887095804371</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1091.000000000004</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.28999999999999</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -901,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.10555953090582</v>
+        <v>42.03150263852342</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>38.9259431076176</v>
       </c>
     </row>
     <row r="5">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36.23570364914818</v>
+        <v>21.73438320357907</v>
       </c>
     </row>
     <row r="7">
@@ -1002,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>43.25177335971647</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>35.57537733795152</v>
+        <v>44.50132044556911</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1140,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1154,10 +1099,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1168,10 +1113,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1182,10 +1127,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1196,10 +1141,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1210,10 +1155,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -1224,10 +1169,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
@@ -1238,10 +1183,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
@@ -1252,15 +1197,85 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
         <v>5</v>
       </c>
       <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>151.4099999999994</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8">
@@ -1374,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>156.3</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9">
@@ -1385,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>150.5049999999994</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10">
@@ -1396,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>154.0549999999994</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
@@ -1407,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>149.7249999999994</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12">
@@ -1418,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.68999999999978</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13">
@@ -1429,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.85999999999979</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
@@ -1440,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.12999999999978</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15">
@@ -1451,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.87499999999977</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16">
@@ -1462,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.53999999999978</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17">
@@ -1473,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999984</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1484,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999985</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1495,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1506,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1517,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1528,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.0100000000001</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -1539,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>107.7850000000001</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -1550,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>116.8050000000001</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
@@ -1561,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>101.3100000000001</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -1572,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.9950000000001</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -1583,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>152.9850000000009</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28">
@@ -1594,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>153.2300000000009</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29">
@@ -1605,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>159.1650000000009</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30">
@@ -1616,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>156.6300000000009</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
@@ -1627,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>161.4950000000009</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32">
@@ -1638,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>152.9850000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1649,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>153.2300000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1660,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>159.1650000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1671,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>156.6300000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1682,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>161.4950000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1693,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>151.4099999999994</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38">
@@ -1704,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>156.3</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39">
@@ -1715,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>150.5049999999994</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40">
@@ -1726,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>154.0549999999994</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41">
@@ -1737,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>149.7249999999994</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>52.98500000000087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1795,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>53.23000000000087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1806,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>59.16500000000087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1817,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>56.63000000000088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1828,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>61.49500000000089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1839,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>51.4099999999994</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8">
@@ -1850,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>56.3</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9">
@@ -1861,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>50.50499999999943</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10">
@@ -1872,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>54.05499999999941</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11">
@@ -1883,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>49.7249999999994</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2040,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -2051,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -2062,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2073,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2084,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2095,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2106,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2117,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2128,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2139,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2208,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2290,7 +2305,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2301,7 +2316,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2312,7 +2327,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2323,7 +2338,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2334,7 +2349,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2345,7 +2360,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2356,7 +2371,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2367,7 +2382,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -2378,7 +2393,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -2389,12 +2404,67 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
